--- a/data/trans_orig/P14A31-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8179FE3C-2439-449E-8EBF-00478FB21C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB38A49D-1751-4BE9-9549-76E68B38116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FE8D6BF-677E-4034-A5F2-F5D77ABE1FC8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A44E3597-4A1C-49A0-9826-E7E7E3A5B4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,394 +75,394 @@
     <t>83,14%</t>
   </si>
   <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2015 (Tasa respuesta: 1,46%)</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
     <t>60,71%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>16,86%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
     <t>39,29%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>64,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2015 (Tasa respuesta: 1,46%)</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
   </si>
   <si>
     <t>71,11%</t>
   </si>
   <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>88,76%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>61,48%</t>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>28,89%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
+    <t>11,24%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>38,52%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>53,19%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>46,81%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>73,38%</t>
   </si>
   <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A383A3-7F35-4C73-AAC6-E5EE1AE86ED7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185FCE2B-3966-4FA9-8229-1B76C8625F28}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1189,7 +1189,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,13 +1204,13 @@
         <v>952</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1219,13 +1219,13 @@
         <v>5029</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1234,13 +1234,13 @@
         <v>5982</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,7 +1296,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1311,7 +1311,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1323,10 +1323,10 @@
         <v>969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>34</v>
@@ -1338,10 +1338,10 @@
         <v>2836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1374,10 +1374,10 @@
         <v>2792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>34</v>
@@ -1389,13 +1389,13 @@
         <v>2793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,13 +1463,13 @@
         <v>34909</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -1478,13 +1478,13 @@
         <v>34260</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -1493,13 +1493,13 @@
         <v>69169</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1514,13 @@
         <v>5007</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1529,13 +1529,13 @@
         <v>18742</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -1544,13 +1544,13 @@
         <v>23749</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,7 +1606,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BCC7B1-00EA-48DB-89C6-C45F0E9A95B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528E2EBD-2A7C-4D52-BC57-E264FF2B057C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,7 +1642,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1749,13 +1749,13 @@
         <v>9023</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -1764,13 +1764,13 @@
         <v>26829</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -1779,13 +1779,13 @@
         <v>35852</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,10 +1800,10 @@
         <v>2818</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>89</v>
@@ -1922,10 +1922,10 @@
         <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -1934,13 +1934,13 @@
         <v>33819</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
         <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1985,10 +1985,10 @@
         <v>10518</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>111</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2077,7 +2077,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A31-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A31-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB38A49D-1751-4BE9-9549-76E68B38116B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{780FE7FF-E7DB-4BA1-ADEF-7CFCA5B68D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A44E3597-4A1C-49A0-9826-E7E7E3A5B4A8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35F5B7A8-8617-40BB-A278-FCE05B046B99}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="146">
   <si>
     <t>Población que recibe medicación o terapia por enfermedad de riñón en 2012 (Tasa respuesta: 1,35%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>83,14%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>65,78%</t>
   </si>
   <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
   <si>
     <t>73,24%</t>
   </si>
   <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>16,86%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
   </si>
   <si>
     <t>34,22%</t>
   </si>
   <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
   </si>
   <si>
     <t>26,76%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>93,2%</t>
   </si>
   <si>
-    <t>65,42%</t>
+    <t>63,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -147,16 +147,19 @@
     <t>70,98%</t>
   </si>
   <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>64,61%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>6,8%</t>
@@ -165,22 +168,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>34,58%</t>
+    <t>36,1%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>35,39%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,7 +201,7 @@
     <t>50,39%</t>
   </si>
   <si>
-    <t>12,62%</t>
+    <t>11,77%</t>
   </si>
   <si>
     <t>0%</t>
@@ -210,259 +216,265 @@
     <t>49,61%</t>
   </si>
   <si>
-    <t>87,38%</t>
+    <t>88,23%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>64,64%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
   </si>
   <si>
     <t>74,44%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2016 (Tasa respuesta: 1,46%)</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>83,44%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
   </si>
   <si>
     <t>16,56%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por enfermedad de riñón en 2015 (Tasa respuesta: 1,46%)</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
+    <t>43,94%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185FCE2B-3966-4FA9-8229-1B76C8625F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB32C1F-DAD7-409D-B467-110E55B24BC3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1189,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1204,13 +1216,13 @@
         <v>952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1219,13 +1231,13 @@
         <v>5029</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -1234,13 +1246,13 @@
         <v>5982</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1296,7 +1308,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1311,7 +1323,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>30</v>
@@ -1323,10 +1335,10 @@
         <v>969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>34</v>
@@ -1338,10 +1350,10 @@
         <v>2836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>34</v>
@@ -1359,13 +1371,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1374,10 +1386,10 @@
         <v>2792</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>34</v>
@@ -1389,13 +1401,13 @@
         <v>2793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,13 +1475,13 @@
         <v>34909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -1478,13 +1490,13 @@
         <v>34260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -1493,13 +1505,13 @@
         <v>69169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,13 +1526,13 @@
         <v>5007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -1529,13 +1541,13 @@
         <v>18742</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>23</v>
@@ -1544,13 +1556,13 @@
         <v>23749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,7 +1618,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528E2EBD-2A7C-4D52-BC57-E264FF2B057C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CC89F1-9ED5-4BBF-B90B-A82D68853F55}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,7 +1654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1749,13 +1761,13 @@
         <v>9023</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -1764,13 +1776,13 @@
         <v>26829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>34</v>
@@ -1779,13 +1791,13 @@
         <v>35852</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1812,13 @@
         <v>2818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1815,13 +1827,13 @@
         <v>9148</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -1830,13 +1842,13 @@
         <v>11966</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1916,13 @@
         <v>20521</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -1919,13 +1931,13 @@
         <v>13298</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -1934,13 +1946,13 @@
         <v>33819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1967,13 @@
         <v>5116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -1970,13 +1982,13 @@
         <v>5402</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -1985,13 +1997,13 @@
         <v>10518</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2059,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2059,13 +2071,13 @@
         <v>3247</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2077,7 +2089,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>30</v>
@@ -2089,13 +2101,13 @@
         <v>5395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,13 +2122,13 @@
         <v>4747</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2125,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -2140,13 +2152,13 @@
         <v>4747</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2226,13 @@
         <v>32791</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2229,13 +2241,13 @@
         <v>42276</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2244,13 +2256,13 @@
         <v>75067</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2277,13 @@
         <v>12681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2280,13 +2292,13 @@
         <v>14550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>25</v>
@@ -2295,13 +2307,13 @@
         <v>27231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
